--- a/codigo_jun_24/Listas.xlsx
+++ b/codigo_jun_24/Listas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6289c937e7e0e52b/Escritorio/python_basico_santander/repositorio/codigo_jun_24/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FF9D62E-079C-4D2E-A05B-C851305D8A92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{7FF9D62E-079C-4D2E-A05B-C851305D8A92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0EF24924-4E5A-48EC-96D6-C1E49FBC45D4}"/>
   <bookViews>
-    <workbookView xWindow="33060" yWindow="2550" windowWidth="21600" windowHeight="11835" xr2:uid="{426DE75C-6F26-444B-A087-9D16CB8F0D51}"/>
+    <workbookView xWindow="2460" yWindow="855" windowWidth="21600" windowHeight="11835" xr2:uid="{426DE75C-6F26-444B-A087-9D16CB8F0D51}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -46,6 +46,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Aptos Narrow"/>
@@ -94,12 +110,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -439,13 +461,13 @@
   <dimension ref="D3:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D3" s="1">
+      <c r="D3" s="3">
         <v>12</v>
       </c>
       <c r="E3" s="1">
@@ -458,11 +480,11 @@
         <v>55</v>
       </c>
       <c r="H3" s="1">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D4" s="2">
+      <c r="D4" s="4">
         <v>0</v>
       </c>
       <c r="E4" s="2">
@@ -479,7 +501,7 @@
       </c>
     </row>
     <row r="5" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D5" s="2">
+      <c r="D5" s="4">
         <v>-5</v>
       </c>
       <c r="E5" s="2">
@@ -497,5 +519,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>